--- a/2014候選人號次/01臺北市－到齊/中正區.xlsx
+++ b/2014候選人號次/01臺北市－到齊/中正區.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="281" yWindow="105" windowWidth="15383" windowHeight="4753"/>
+    <workbookView xWindow="285" yWindow="105" windowWidth="15390" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -354,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -797,14 +795,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" customWidth="1"/>
+    <col min="1" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
@@ -814,7 +812,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1">
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,7 +824,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -838,7 +836,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1">
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -850,7 +848,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -864,7 +862,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1">
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -878,7 +876,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1">
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -892,7 +890,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1">
+    <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -906,7 +904,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1">
+    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -920,7 +918,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1">
+    <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -934,7 +932,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1">
+    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -946,7 +944,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1">
+    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -962,7 +960,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1">
+    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
@@ -978,7 +976,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="36" customHeight="1">
+    <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -994,7 +992,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="36" customHeight="1">
+    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1010,7 +1008,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1">
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -1022,7 +1020,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1">
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -1034,7 +1032,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -1048,7 +1046,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1">
+    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -1064,7 +1062,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1">
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1076,7 +1074,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1">
+    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1090,7 +1088,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="36" customHeight="1">
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -1102,7 +1100,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1">
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1120,7 +1118,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1">
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -1134,7 +1132,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1">
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -1150,7 +1148,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="36" customHeight="1">
+    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -1164,7 +1162,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="36" customHeight="1">
+    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -1178,7 +1176,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="36" customHeight="1">
+    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -1192,7 +1190,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="36" customHeight="1">
+    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -1208,7 +1206,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -1222,7 +1220,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1">
+    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -1234,7 +1232,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1">
+    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -1252,7 +1250,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="36" customHeight="1">
+    <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -1277,30 +1275,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>